--- a/biology/Biologie cellulaire et moléculaire/Opéron_lactose/Opéron_lactose.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Opéron_lactose/Opéron_lactose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Op%C3%A9ron_lactose</t>
+          <t>Opéron_lactose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'opéron lactose, ou opéron lac, est un opéron nécessaire au transport et au métabolisme du lactose chez Escherichia coli, ainsi que d'autres bactéries de la flore intestinale. L'opéron lactose est composé de trois gènes structurels : lacZ, lacY et lacA. Il est régulé par plusieurs facteurs, notamment la disponibilité en glucose et en lactose. La régulation des gènes de l'opéron lac est le premier mécanisme de régulation génétique complexe à avoir été élucidé et est l'un des exemples des plus connus de la régulation des gènes procaryotes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Op%C3%A9ron_lactose</t>
+          <t>Opéron_lactose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son environnement naturel, l'opéron lac permet la digestion efficace du lactose. La cellule peut utiliser le lactose comme source d'énergie en produisant l'enzyme β-galactosidase et ainsi digérer le lactose en glucose et en galactose. Toutefois, la production de l'enzyme est inutile quand le lactose n'est pas disponible, ou s'il y a une source d'énergie plus facilement exploitable de disponible comme le glucose. 
 L'opéron lac utilise un mécanisme de contrôle en deux parties qui font que la cellule ne dépense d'énergie pour produire la β-galactosidase, la perméase β-galactoside et la thiogalactoside transacétylase (ou galactoside O-acétyltransferase) que lorsque c'est nécessaire. Il y parvient avec le répresseur lac, dont il active la production en l'absence de lactose, et la protéine activatrice des catabolites (CAP), dont il active la production en l'absence de glucose. Ce mécanisme à double contrôle entraîne l'utilisation séquentielle de glucose et le lactose en deux phases distinctes de croissance, connue sous le nom diauxie. Des patrons de croissance similaires (diauxiques) ont aussi été observés dans la croissance bactérienne sur des substrats contenant d'autres mélanges de sucres, comme des mélanges de glucose et d'arabinose, etc. Les mécanismes de contrôle génétique sous-jacents à ces schémas de croissance diauxiques sont connus sous les noms d'opéron xyl, opéron ara, etc.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Op%C3%A9ron_lactose</t>
+          <t>Opéron_lactose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'opéron est constitué de :
 3 gènes de structure :
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Op%C3%A9ron_lactose</t>
+          <t>Opéron_lactose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,12 +604,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Réponse au lactose
-Le premier mécanisme de contrôle est la réponse régulatrice au lactose, qui utilise une protéine régulatrice intracellulaire, le répresseur lactose, pour stopper la production de β-galactosidase en l'absence de lactose. Le gène régulateur lacI codant le répresseur se trouve à proximité de l'opéron lac et est toujours exprimé (transcrit constitutivement). Cette répression est inhibée en présence de lactose.
+          <t>Réponse au lactose</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le premier mécanisme de contrôle est la réponse régulatrice au lactose, qui utilise une protéine régulatrice intracellulaire, le répresseur lactose, pour stopper la production de β-galactosidase en l'absence de lactose. Le gène régulateur lacI codant le répresseur se trouve à proximité de l'opéron lac et est toujours exprimé (transcrit constitutivement). Cette répression est inhibée en présence de lactose.
 Si le lactose est absent du milieu de croissance, le répresseur se lie très étroitement à une courte séquence d'ADN juste en aval du promoteur au début de lacZ appelée opérateur lac (o), une séquence non codante complémentaire au répresseur. La liaison du répresseur à l'opérateur interfère avec la liaison d'ARN polymérase au promoteur p, et donc l'ARNm codant lacZ et lacY est très peu transcrit : le métabolisme du lactose n'est pas possible.
-Sans perméase, le lactose du milieu extérieur pénètre faiblement et est transformé en allolactose, un isomère du lactose, une combinaison de glucose et de galactose. Il se lie au répresseur, provoquant un changement dans sa forme, formant un complexe incapable de se fixer sur le site o opérateur. L'ARN polymérase peut alors transcrire normalement les gènes de structure lac. Les enzymes nécessaires au métabolisme du lactose sont synthétisées.
-Réponse au glucose
-Le second mécanisme de contrôle est une réponse au glucose, qui utilise la protéine activatrice des catabolites (CAP), pour augmenter considérablement la production de β-galactosidase en absence de glucose. L'adénosine monophosphate cyclique (AMPc) est une molécule signal dont la prévalence est inversement proportionnelle à celle du glucose. Il se lie à la CAP (connue aussi sous le nom de CRP pour AMP Cyclique Receptor Protein), qui permet à son tour au complexe formé de se lier au site de liaison CAP (une séquence d'ADN de 16 paires de bases en amont du promoteur), qui aide l'ARN polymérase à se lier à l'ADN. En absence de glucose, la concentration d'AMPc est élevée et la liaison de CAP-AMPc à l'ADN augmente de manière significative la production de β-galactosidase, permettant à la cellule d'hydrolyser le lactose et de libérer le galactose et le glucose.
+Sans perméase, le lactose du milieu extérieur pénètre faiblement et est transformé en allolactose, un isomère du lactose, une combinaison de glucose et de galactose. Il se lie au répresseur, provoquant un changement dans sa forme, formant un complexe incapable de se fixer sur le site o opérateur. L'ARN polymérase peut alors transcrire normalement les gènes de structure lac. Les enzymes nécessaires au métabolisme du lactose sont synthétisées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Opéron_lactose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Op%C3%A9ron_lactose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mécanisme de régulation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réponse au glucose</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le second mécanisme de contrôle est une réponse au glucose, qui utilise la protéine activatrice des catabolites (CAP), pour augmenter considérablement la production de β-galactosidase en absence de glucose. L'adénosine monophosphate cyclique (AMPc) est une molécule signal dont la prévalence est inversement proportionnelle à celle du glucose. Il se lie à la CAP (connue aussi sous le nom de CRP pour AMP Cyclique Receptor Protein), qui permet à son tour au complexe formé de se lier au site de liaison CAP (une séquence d'ADN de 16 paires de bases en amont du promoteur), qui aide l'ARN polymérase à se lier à l'ADN. En absence de glucose, la concentration d'AMPc est élevée et la liaison de CAP-AMPc à l'ADN augmente de manière significative la production de β-galactosidase, permettant à la cellule d'hydrolyser le lactose et de libérer le galactose et le glucose.
 Le promoteur de l'opéron lac est un promoteur faible, c'est-à-dire que l'holoenzyme d'initiation de la transcription a une faible affinité pour cette séquence, la reconnait peu.
 En amont des séquences promotrices se trouve une séquence CRE, reconnue par le facteur CRP lié à un AMP cyclique. Lorsque l'holoenzyme est liée à CRP-AMPc, ces deux protéines voient leur affinités pour leurs séquences cibles augmenter: l'holoenzyme se fixe beaucoup plus facilement sur le promoteur et la transcription de l'opéron est élevée. Mais ceci nécessite donc la présence d'AMPc...
 Or, lorsque le glucose pénètre dans les cellules, il est phosphorylé par une protéine (IIB-P). Cette protéine "récupère" elle-même le groupement phosphate au bout d'une chaine moléculaire de transfert de phosphates. Dans cette chaine est présente la molécule IIA qui, sous sa forme phosphorylée, est un activateur de l'adénylate cyclase (enzyme produisant de l'AMPc à partir d'ATP).
@@ -613,40 +668,6 @@
 ⇒ CRP-AMPc se lie à l'holoenzyme.
 ⇒ Qui peut se fixer sur le promoteur.
 ⇒ Forte transcription des cistrons de l'opéron, si le répresseur n'est pas fixé sur l'opérateur bien sûr (c'est-à-dire en présence de lactose).
-Phénomène de diauxie
-Diauxie signifie « deux croissances » en grec. La présence de l'opéron explique le phénomène de diauxie[1]. Une population bactérienne mise dans un milieu de culture minimum contenant deux sucres présente une courbe de croissance biphasique. Après une première phase de croissance exponentielle, la croissance s'arrête puis reprend à nouveau de façon exponentielle. Après avoir épuisé le premier sucre, la répression de l'opéron est levée et le second sucre peut être utilisé. La latence entre la phase I et II s'explique par le temps pris pour synthétiser les protéines de l'opéron.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Op%C3%A9ron_lactose</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Op%C3%A9ron_lactose</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Génétique du mécanisme, mutants</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une percée conceptuelle de François Jacob et Jacques Monod est de faire la distinction entre les substances régulatrices et les sites sur lesquels elles agissent pour changer l'expression des gènes. Jacob, ancien soldat, utilise l'analogie d'un bombardier qui largue sa cargaison mortelle lors de la réception d'une transmission radio spéciale ou d'un signal. Pour fonctionner ce système exige à la fois un émetteur au sol et un récepteur dans l'avion. Si l'émetteur est cassé, ce système peut fonctionner avec un deuxième émetteur fonctionnel. En revanche, dit-il, si l'on envisage un bombardier avec un récepteur défectueux, le comportement de ce bombardier ne peut pas être changé par l'introduction d'un deuxième avion fonctionnel[1].
-Pour analyser les mutants de la régulation de l'opéron lac, Jacob a développé un système dans lequel une deuxième copie des gènes lac (lacI avec son promoteur, et lacZYA avec le promoteur et l'opérateur) pourrait être introduite dans une même cellule. Il teste alors le phénotype de la régulation d'une culture de ces bactéries, uniquement diploïdes pour les gènes lac. Cette expérience révèle en particulier que LacZ et LacY sont produits même en l'absence d'IPTG. Cette expérience, dont les gènes ou groupes de gènes sont testés par paires, est appelé un test de complémentation.
 </t>
         </is>
       </c>
@@ -657,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Op%C3%A9ron_lactose</t>
+          <t>Opéron_lactose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,13 +693,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Mécanisme de régulation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phénomène de diauxie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diauxie signifie « deux croissances » en grec. La présence de l'opéron explique le phénomène de diauxie. Une population bactérienne mise dans un milieu de culture minimum contenant deux sucres présente une courbe de croissance biphasique. Après une première phase de croissance exponentielle, la croissance s'arrête puis reprend à nouveau de façon exponentielle. Après avoir épuisé le premier sucre, la répression de l'opéron est levée et le second sucre peut être utilisé. La latence entre la phase I et II s'explique par le temps pris pour synthétiser les protéines de l'opéron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Opéron_lactose</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Op%C3%A9ron_lactose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Génétique du mécanisme, mutants</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une percée conceptuelle de François Jacob et Jacques Monod est de faire la distinction entre les substances régulatrices et les sites sur lesquels elles agissent pour changer l'expression des gènes. Jacob, ancien soldat, utilise l'analogie d'un bombardier qui largue sa cargaison mortelle lors de la réception d'une transmission radio spéciale ou d'un signal. Pour fonctionner ce système exige à la fois un émetteur au sol et un récepteur dans l'avion. Si l'émetteur est cassé, ce système peut fonctionner avec un deuxième émetteur fonctionnel. En revanche, dit-il, si l'on envisage un bombardier avec un récepteur défectueux, le comportement de ce bombardier ne peut pas être changé par l'introduction d'un deuxième avion fonctionnel.
+Pour analyser les mutants de la régulation de l'opéron lac, Jacob a développé un système dans lequel une deuxième copie des gènes lac (lacI avec son promoteur, et lacZYA avec le promoteur et l'opérateur) pourrait être introduite dans une même cellule. Il teste alors le phénotype de la régulation d'une culture de ces bactéries, uniquement diploïdes pour les gènes lac. Cette expérience révèle en particulier que LacZ et LacY sont produits même en l'absence d'IPTG. Cette expérience, dont les gènes ou groupes de gènes sont testés par paires, est appelé un test de complémentation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Opéron_lactose</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Op%C3%A9ron_lactose</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Analogues du lactose</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Il existe de nombreux analogues ou dérivés du lactose permettant d'induire l'opéron lactose. Ces composés sont principalement des galactosides substitués, où le glucose du lactose est remplacé par un autre groupe chimique :
-l'isopropyl β-D-1-thiogalactopyranoside (IPTG) est l'un des plus utilisés, et joue le rôle d'inducteur de l'opéron lac. L'IPTG a la capacité de se lier au répresseur de l'opéron et ainsi permettre la synthèse de la β-galactosidase. Un avantage de l'IPTG pour des études in vivo, c'est que ne pouvant pas être métabolisé par E. coli sa concentration reste constante et que le taux d'expression des gènes contrôlés par lac p et lac o n'est pas une variable dans l'expérience. L'entrée de l'IPTG dépend de la perméase lactose (codée par lacY)[2].
+l'isopropyl β-D-1-thiogalactopyranoside (IPTG) est l'un des plus utilisés, et joue le rôle d'inducteur de l'opéron lac. L'IPTG a la capacité de se lier au répresseur de l'opéron et ainsi permettre la synthèse de la β-galactosidase. Un avantage de l'IPTG pour des études in vivo, c'est que ne pouvant pas être métabolisé par E. coli sa concentration reste constante et que le taux d'expression des gènes contrôlés par lac p et lac o n'est pas une variable dans l'expérience. L'entrée de l'IPTG dépend de la perméase lactose (codée par lacY).
 le phényl-β-D-galactose (Pgal) est un substrat pour la β-galactosidase, mais n'inactiver le répresseur et n'est donc pas un inducteur. Comme les cellules de type sauvage ne produisent que très peu de β-galactosidase, elles ne peuvent pas pousser sur le phényl-gal pour source de carbone et d'énergie. Les mutants n'ayant pas le répresseur sont capables de croître sur le phényl-gal. Ainsi, un milieu minimal contenant uniquement du phényl-gal comme source de carbone et d'énergie est sélectif pour les mutants au répresseur ou à l'opérateur non fonctionnels. Si 108 cellules d'une souche de type sauvage sont étalées sur des plaques d'agar contenant le phényl-gal, les colonies qui se développent sont essentiellement les rares mutants spontanés affectant le répresseur. La répartition relative des mutations affectant le répresseur et l'opérateur dépend de la taille des séquences en jeu : comme le gène lacI codant le répresseur est environ 50 fois plus grand que le site de l'opérateur, les mutants sans répresseur prédominent dans la sélection.
 d'autres composés sont des indicateurs colorés de l'activité de la β-galactosidase :
 l'ONPG est clivé pour produire un composé d'un jaune intense, l'orthonitrophénol, et est couramment utilisé comme substrat pour le dosage de la β-galactosidase in vitro ;
